--- a/target/classes/excel/command_template.xlsx
+++ b/target/classes/excel/command_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Workspace\TemplateProcessDemo\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C042A3-1177-4AB3-8F0F-F636DCDB09AB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EACDA0A-DF5B-48A2-B015-12AC77027961}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="390" windowWidth="28800" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="705" windowWidth="28800" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,11 +39,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>jx:area(lastCell="C9")</t>
+          <t>jx:area(lastCell="L20")</t>
         </r>
       </text>
     </comment>
-    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{0F9B7353-CB98-4121-AE33-183A490F5F94}">
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{0F9B7353-CB98-4121-AE33-183A490F5F94}">
       <text>
         <r>
           <rPr>
@@ -52,7 +52,20 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>jx:smeupTest(lastCell="B7" condition = "x&lt;6")</t>
+          <t>jx:smeuptest(lastCell="B7" condition = "x&lt;6")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{3C034274-8866-48C2-98B2-C89645BA26AF}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>jx:color(lastCell="H4")</t>
         </r>
       </text>
     </comment>
@@ -61,12 +74,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Custom command demo</t>
-  </si>
-  <si>
-    <t>${x}</t>
   </si>
 </sst>
 </file>
@@ -95,15 +105,21 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -111,13 +127,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -409,17 +437,15 @@
     <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
+    <row r="2" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4"/>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
